--- a/optimize/Axiory/covid/MA15/NIKKEI/M5/summary_NIKKEI_M5_MA15_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA15/NIKKEI/M5/summary_NIKKEI_M5_MA15_2020_1.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>atr_window</t>
+    <t>supertrend.atr_window</t>
   </si>
   <si>
-    <t>atr_multiply</t>
+    <t>supertrend.atr_multiply</t>
   </si>
   <si>
-    <t>ma_wndow</t>
+    <t>supertrend.ma_window</t>
+  </si>
+  <si>
+    <t>supertrend.filter_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_window</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_ma</t>
+  </si>
+  <si>
+    <t>supertrend.atrp_threshold</t>
   </si>
   <si>
     <t>n</t>
@@ -392,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +432,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -435,16 +459,28 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>3901</v>
+        <v>384</v>
       </c>
       <c r="F2">
-        <v>4108</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>0.5173032555754935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>3900</v>
+      </c>
+      <c r="J2">
+        <v>4118</v>
+      </c>
+      <c r="K2">
+        <v>0.5174358974358975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,16 +494,28 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>2435</v>
+        <v>384</v>
       </c>
       <c r="F3">
-        <v>3276</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>0.5137577002053388</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>2434</v>
+      </c>
+      <c r="J3">
+        <v>3286</v>
+      </c>
+      <c r="K3">
+        <v>0.5139687756778965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -481,16 +529,28 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>1484</v>
+        <v>384</v>
       </c>
       <c r="F4">
-        <v>7998</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>0.5067385444743935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>1483</v>
+      </c>
+      <c r="J4">
+        <v>8008</v>
+      </c>
+      <c r="K4">
+        <v>0.50708024275118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -504,16 +564,28 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>917</v>
+        <v>384</v>
       </c>
       <c r="F5">
-        <v>2946</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.4569247546346783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>916</v>
+      </c>
+      <c r="J5">
+        <v>2956</v>
+      </c>
+      <c r="K5">
+        <v>0.4574235807860262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -527,16 +599,28 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>585</v>
+        <v>384</v>
       </c>
       <c r="F6">
-        <v>-1836</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.3914529914529915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>584</v>
+      </c>
+      <c r="J6">
+        <v>-1826</v>
+      </c>
+      <c r="K6">
+        <v>0.3921232876712329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -550,16 +634,28 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="F7">
-        <v>-5674</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>0.3505882352941176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>424</v>
+      </c>
+      <c r="J7">
+        <v>-5664</v>
+      </c>
+      <c r="K7">
+        <v>0.3514150943396226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -573,16 +669,28 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="F8">
-        <v>-1124</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>0.3853211009174312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>326</v>
+      </c>
+      <c r="J8">
+        <v>-1114</v>
+      </c>
+      <c r="K8">
+        <v>0.3865030674846626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -596,16 +704,28 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="F9">
-        <v>-1348</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>0.3951890034364261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>290</v>
+      </c>
+      <c r="J9">
+        <v>-1338</v>
+      </c>
+      <c r="K9">
+        <v>0.396551724137931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -619,16 +739,28 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>245</v>
+        <v>384</v>
       </c>
       <c r="F10">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>244</v>
+      </c>
+      <c r="J10">
+        <v>318</v>
+      </c>
+      <c r="K10">
+        <v>0.4016393442622951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -642,16 +774,28 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>3829</v>
+        <v>384</v>
       </c>
       <c r="F11">
-        <v>-2534</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>0.5058762078871768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>3828</v>
+      </c>
+      <c r="J11">
+        <v>-2524</v>
+      </c>
+      <c r="K11">
+        <v>0.5060083594566354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -665,16 +809,28 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>2389</v>
+        <v>384</v>
       </c>
       <c r="F12">
-        <v>-3466</v>
+        <v>40</v>
       </c>
       <c r="G12">
-        <v>0.4926747593135203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>2388</v>
+      </c>
+      <c r="J12">
+        <v>-3456</v>
+      </c>
+      <c r="K12">
+        <v>0.4928810720268006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -688,16 +844,28 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>1454</v>
+        <v>384</v>
       </c>
       <c r="F13">
-        <v>8250</v>
+        <v>40</v>
       </c>
       <c r="G13">
-        <v>0.5027510316368639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>1453</v>
+      </c>
+      <c r="J13">
+        <v>8260</v>
+      </c>
+      <c r="K13">
+        <v>0.5030970406056435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -711,16 +879,28 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>923</v>
+        <v>384</v>
       </c>
       <c r="F14">
-        <v>-5818</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>0.4333694474539545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>922</v>
+      </c>
+      <c r="J14">
+        <v>-5808</v>
+      </c>
+      <c r="K14">
+        <v>0.4338394793926247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -734,16 +914,28 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>611</v>
+        <v>384</v>
       </c>
       <c r="F15">
-        <v>-8830</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>0.397708674304419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>610</v>
+      </c>
+      <c r="J15">
+        <v>-8820</v>
+      </c>
+      <c r="K15">
+        <v>0.3983606557377049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -757,16 +949,28 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="F16">
-        <v>-4962</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>0.3829787234042553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>422</v>
+      </c>
+      <c r="J16">
+        <v>-4952</v>
+      </c>
+      <c r="K16">
+        <v>0.3838862559241706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -780,16 +984,28 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="F17">
-        <v>-3598</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>0.3855072463768116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>344</v>
+      </c>
+      <c r="J17">
+        <v>-3588</v>
+      </c>
+      <c r="K17">
+        <v>0.3866279069767442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -803,16 +1019,28 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>277</v>
+        <v>384</v>
       </c>
       <c r="F18">
-        <v>-2868</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>0.3898916967509025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>276</v>
+      </c>
+      <c r="J18">
+        <v>-2858</v>
+      </c>
+      <c r="K18">
+        <v>0.391304347826087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -826,16 +1054,28 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>229</v>
+        <v>384</v>
       </c>
       <c r="F19">
-        <v>-1400</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>0.3930131004366812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>228</v>
+      </c>
+      <c r="J19">
+        <v>-1390</v>
+      </c>
+      <c r="K19">
+        <v>0.3947368421052632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -849,16 +1089,28 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>3781</v>
+        <v>384</v>
       </c>
       <c r="F20">
-        <v>1522</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>0.5160010579211849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>3780</v>
+      </c>
+      <c r="J20">
+        <v>1532</v>
+      </c>
+      <c r="K20">
+        <v>0.5161375661375661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -872,16 +1124,28 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>2355</v>
+        <v>384</v>
       </c>
       <c r="F21">
-        <v>-3652</v>
+        <v>40</v>
       </c>
       <c r="G21">
-        <v>0.5019108280254777</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>2354</v>
+      </c>
+      <c r="J21">
+        <v>-3642</v>
+      </c>
+      <c r="K21">
+        <v>0.5021240441801189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -895,16 +1159,28 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>1460</v>
+        <v>384</v>
       </c>
       <c r="F22">
-        <v>9310</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>0.4938356164383562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>1459</v>
+      </c>
+      <c r="J22">
+        <v>9320</v>
+      </c>
+      <c r="K22">
+        <v>0.4941740918437286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -918,16 +1194,28 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>963</v>
+        <v>384</v>
       </c>
       <c r="F23">
-        <v>-916</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>0.446521287642783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>962</v>
+      </c>
+      <c r="J23">
+        <v>-906</v>
+      </c>
+      <c r="K23">
+        <v>0.446985446985447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -941,16 +1229,28 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>625</v>
+        <v>384</v>
       </c>
       <c r="F24">
-        <v>-4704</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>0.416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>624</v>
+      </c>
+      <c r="J24">
+        <v>-4694</v>
+      </c>
+      <c r="K24">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -964,16 +1264,28 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F25">
-        <v>-5952</v>
+        <v>40</v>
       </c>
       <c r="G25">
-        <v>0.3937360178970917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>446</v>
+      </c>
+      <c r="J25">
+        <v>-5942</v>
+      </c>
+      <c r="K25">
+        <v>0.3946188340807175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -987,16 +1299,28 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="F26">
-        <v>-3720</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>0.3976945244956772</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>346</v>
+      </c>
+      <c r="J26">
+        <v>-3710</v>
+      </c>
+      <c r="K26">
+        <v>0.3988439306358382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1010,16 +1334,28 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="F27">
-        <v>-3508</v>
+        <v>40</v>
       </c>
       <c r="G27">
-        <v>0.3824561403508772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>284</v>
+      </c>
+      <c r="J27">
+        <v>-3498</v>
+      </c>
+      <c r="K27">
+        <v>0.3838028169014084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1033,16 +1369,28 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="F28">
-        <v>-1882</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>0.4238683127572017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>242</v>
+      </c>
+      <c r="J28">
+        <v>-1872</v>
+      </c>
+      <c r="K28">
+        <v>0.4256198347107438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1056,16 +1404,28 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>3775</v>
+        <v>384</v>
       </c>
       <c r="F29">
-        <v>-1794</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>0.5070198675496689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>3774</v>
+      </c>
+      <c r="J29">
+        <v>-1784</v>
+      </c>
+      <c r="K29">
+        <v>0.5071542130365659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1079,16 +1439,28 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>2337</v>
+        <v>384</v>
       </c>
       <c r="F30">
-        <v>-850</v>
+        <v>40</v>
       </c>
       <c r="G30">
-        <v>0.5066324347454001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>2336</v>
+      </c>
+      <c r="J30">
+        <v>-840</v>
+      </c>
+      <c r="K30">
+        <v>0.5068493150684932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1102,16 +1474,28 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>1473</v>
+        <v>384</v>
       </c>
       <c r="F31">
-        <v>6378</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>0.4860828241683639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
+        <v>1472</v>
+      </c>
+      <c r="J31">
+        <v>6388</v>
+      </c>
+      <c r="K31">
+        <v>0.4864130434782609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1125,16 +1509,28 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>975</v>
+        <v>384</v>
       </c>
       <c r="F32">
-        <v>-274</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>0.4512820512820513</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>0.2</v>
+      </c>
+      <c r="I32">
+        <v>974</v>
+      </c>
+      <c r="J32">
+        <v>-264</v>
+      </c>
+      <c r="K32">
+        <v>0.4517453798767967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1148,16 +1544,28 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>649</v>
+        <v>384</v>
       </c>
       <c r="F33">
-        <v>-2568</v>
+        <v>40</v>
       </c>
       <c r="G33">
-        <v>0.4067796610169492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>648</v>
+      </c>
+      <c r="J33">
+        <v>-2558</v>
+      </c>
+      <c r="K33">
+        <v>0.4074074074074074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1171,16 +1579,28 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="F34">
-        <v>-4674</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>0.410752688172043</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="I34">
+        <v>464</v>
+      </c>
+      <c r="J34">
+        <v>-4664</v>
+      </c>
+      <c r="K34">
+        <v>0.4116379310344828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1194,16 +1614,28 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="F35">
-        <v>-3328</v>
+        <v>40</v>
       </c>
       <c r="G35">
-        <v>0.424929178470255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>0.2</v>
+      </c>
+      <c r="I35">
+        <v>352</v>
+      </c>
+      <c r="J35">
+        <v>-3318</v>
+      </c>
+      <c r="K35">
+        <v>0.4261363636363636</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1217,16 +1649,28 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="F36">
-        <v>-7732</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>0.3973941368078176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>306</v>
+      </c>
+      <c r="J36">
+        <v>-7722</v>
+      </c>
+      <c r="K36">
+        <v>0.3986928104575164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1240,16 +1684,28 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>259</v>
+        <v>384</v>
       </c>
       <c r="F37">
-        <v>-3144</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>0.3938223938223938</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>258</v>
+      </c>
+      <c r="J37">
+        <v>-3134</v>
+      </c>
+      <c r="K37">
+        <v>0.3953488372093023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1263,16 +1719,28 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>3759</v>
+        <v>384</v>
       </c>
       <c r="F38">
-        <v>4028</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>0.5192870444267093</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>0.2</v>
+      </c>
+      <c r="I38">
+        <v>3758</v>
+      </c>
+      <c r="J38">
+        <v>4038</v>
+      </c>
+      <c r="K38">
+        <v>0.5194252261841406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1286,16 +1754,28 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>2329</v>
+        <v>384</v>
       </c>
       <c r="F39">
-        <v>-5172</v>
+        <v>40</v>
       </c>
       <c r="G39">
-        <v>0.5002146844139116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H39">
+        <v>0.2</v>
+      </c>
+      <c r="I39">
+        <v>2328</v>
+      </c>
+      <c r="J39">
+        <v>-5162</v>
+      </c>
+      <c r="K39">
+        <v>0.5004295532646048</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1309,16 +1789,28 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>1467</v>
+        <v>384</v>
       </c>
       <c r="F40">
-        <v>7068</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>0.4880708929788685</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>1466</v>
+      </c>
+      <c r="J40">
+        <v>7078</v>
+      </c>
+      <c r="K40">
+        <v>0.4884038199181446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1332,16 +1824,28 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>949</v>
+        <v>384</v>
       </c>
       <c r="F41">
-        <v>1348</v>
+        <v>40</v>
       </c>
       <c r="G41">
-        <v>0.4636459430979979</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>0.2</v>
+      </c>
+      <c r="I41">
+        <v>948</v>
+      </c>
+      <c r="J41">
+        <v>1358</v>
+      </c>
+      <c r="K41">
+        <v>0.4641350210970464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1355,16 +1859,28 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>679</v>
+        <v>384</v>
       </c>
       <c r="F42">
-        <v>-4898</v>
+        <v>40</v>
       </c>
       <c r="G42">
-        <v>0.4035346097201767</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="I42">
+        <v>678</v>
+      </c>
+      <c r="J42">
+        <v>-4888</v>
+      </c>
+      <c r="K42">
+        <v>0.4041297935103245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1378,16 +1894,28 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>469</v>
+        <v>384</v>
       </c>
       <c r="F43">
-        <v>1360</v>
+        <v>40</v>
       </c>
       <c r="G43">
-        <v>0.4371002132196162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>468</v>
+      </c>
+      <c r="J43">
+        <v>1370</v>
+      </c>
+      <c r="K43">
+        <v>0.438034188034188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1401,16 +1929,28 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F44">
-        <v>-9384</v>
+        <v>40</v>
       </c>
       <c r="G44">
-        <v>0.4016172506738545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>0.2</v>
+      </c>
+      <c r="I44">
+        <v>370</v>
+      </c>
+      <c r="J44">
+        <v>-9374</v>
+      </c>
+      <c r="K44">
+        <v>0.4027027027027027</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1424,16 +1964,28 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="F45">
-        <v>-1778</v>
+        <v>40</v>
       </c>
       <c r="G45">
-        <v>0.4295081967213115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <v>304</v>
+      </c>
+      <c r="J45">
+        <v>-1768</v>
+      </c>
+      <c r="K45">
+        <v>0.4309210526315789</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1447,16 +1999,28 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="F46">
-        <v>-5988</v>
+        <v>40</v>
       </c>
       <c r="G46">
-        <v>0.3811320754716981</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46">
+        <v>264</v>
+      </c>
+      <c r="J46">
+        <v>-5978</v>
+      </c>
+      <c r="K46">
+        <v>0.3825757575757576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1470,16 +2034,28 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>3751</v>
+        <v>384</v>
       </c>
       <c r="F47">
-        <v>4712</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>0.5193281791522261</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>0.2</v>
+      </c>
+      <c r="I47">
+        <v>3750</v>
+      </c>
+      <c r="J47">
+        <v>4722</v>
+      </c>
+      <c r="K47">
+        <v>0.5194666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1493,16 +2069,28 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>2331</v>
+        <v>384</v>
       </c>
       <c r="F48">
-        <v>-5134</v>
+        <v>40</v>
       </c>
       <c r="G48">
-        <v>0.4972114972114972</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48">
+        <v>2330</v>
+      </c>
+      <c r="J48">
+        <v>-5124</v>
+      </c>
+      <c r="K48">
+        <v>0.4974248927038626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1516,16 +2104,28 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>1481</v>
+        <v>384</v>
       </c>
       <c r="F49">
-        <v>3956</v>
+        <v>40</v>
       </c>
       <c r="G49">
-        <v>0.4888588791357191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <v>1480</v>
+      </c>
+      <c r="J49">
+        <v>3966</v>
+      </c>
+      <c r="K49">
+        <v>0.4891891891891892</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1539,16 +2139,28 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>955</v>
+        <v>384</v>
       </c>
       <c r="F50">
-        <v>7660</v>
+        <v>40</v>
       </c>
       <c r="G50">
-        <v>0.4670157068062827</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="I50">
+        <v>954</v>
+      </c>
+      <c r="J50">
+        <v>7670</v>
+      </c>
+      <c r="K50">
+        <v>0.4675052410901467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1562,16 +2174,28 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>709</v>
+        <v>384</v>
       </c>
       <c r="F51">
-        <v>-7982</v>
+        <v>40</v>
       </c>
       <c r="G51">
-        <v>0.4019746121297602</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>0.2</v>
+      </c>
+      <c r="I51">
+        <v>708</v>
+      </c>
+      <c r="J51">
+        <v>-7972</v>
+      </c>
+      <c r="K51">
+        <v>0.4025423728813559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1585,16 +2209,28 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>479</v>
+        <v>384</v>
       </c>
       <c r="F52">
-        <v>2360</v>
+        <v>40</v>
       </c>
       <c r="G52">
-        <v>0.4488517745302714</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H52">
+        <v>0.2</v>
+      </c>
+      <c r="I52">
+        <v>478</v>
+      </c>
+      <c r="J52">
+        <v>2370</v>
+      </c>
+      <c r="K52">
+        <v>0.4497907949790795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1608,16 +2244,28 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F53">
-        <v>-2070</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>0.4396782841823056</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>0.2</v>
+      </c>
+      <c r="I53">
+        <v>372</v>
+      </c>
+      <c r="J53">
+        <v>-2060</v>
+      </c>
+      <c r="K53">
+        <v>0.4408602150537634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1631,16 +2279,28 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="F54">
-        <v>-2240</v>
+        <v>40</v>
       </c>
       <c r="G54">
-        <v>0.4083601286173634</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H54">
+        <v>0.2</v>
+      </c>
+      <c r="I54">
+        <v>310</v>
+      </c>
+      <c r="J54">
+        <v>-2230</v>
+      </c>
+      <c r="K54">
+        <v>0.4096774193548387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1654,16 +2314,28 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="F55">
-        <v>-4738</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>0.3906810035842294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="I55">
+        <v>278</v>
+      </c>
+      <c r="J55">
+        <v>-4728</v>
+      </c>
+      <c r="K55">
+        <v>0.3920863309352518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1677,16 +2349,28 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>3755</v>
+        <v>384</v>
       </c>
       <c r="F56">
-        <v>6884</v>
+        <v>40</v>
       </c>
       <c r="G56">
-        <v>0.5214380825565912</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H56">
+        <v>0.2</v>
+      </c>
+      <c r="I56">
+        <v>3754</v>
+      </c>
+      <c r="J56">
+        <v>6894</v>
+      </c>
+      <c r="K56">
+        <v>0.5215769845498135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1700,16 +2384,28 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>2353</v>
+        <v>384</v>
       </c>
       <c r="F57">
-        <v>-5904</v>
+        <v>40</v>
       </c>
       <c r="G57">
-        <v>0.4951126221844454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H57">
+        <v>0.2</v>
+      </c>
+      <c r="I57">
+        <v>2352</v>
+      </c>
+      <c r="J57">
+        <v>-5894</v>
+      </c>
+      <c r="K57">
+        <v>0.4953231292517007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1723,16 +2419,28 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>1471</v>
+        <v>384</v>
       </c>
       <c r="F58">
-        <v>4918</v>
+        <v>40</v>
       </c>
       <c r="G58">
-        <v>0.4847042828008158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H58">
+        <v>0.2</v>
+      </c>
+      <c r="I58">
+        <v>1470</v>
+      </c>
+      <c r="J58">
+        <v>4928</v>
+      </c>
+      <c r="K58">
+        <v>0.4850340136054422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1746,16 +2454,28 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>965</v>
+        <v>384</v>
       </c>
       <c r="F59">
-        <v>9014</v>
+        <v>40</v>
       </c>
       <c r="G59">
-        <v>0.4715025906735751</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H59">
+        <v>0.2</v>
+      </c>
+      <c r="I59">
+        <v>964</v>
+      </c>
+      <c r="J59">
+        <v>9024</v>
+      </c>
+      <c r="K59">
+        <v>0.4719917012448133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1769,16 +2489,28 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>715</v>
+        <v>384</v>
       </c>
       <c r="F60">
-        <v>-8480</v>
+        <v>40</v>
       </c>
       <c r="G60">
-        <v>0.4083916083916084</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+      <c r="I60">
+        <v>714</v>
+      </c>
+      <c r="J60">
+        <v>-8470</v>
+      </c>
+      <c r="K60">
+        <v>0.4089635854341737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1792,16 +2524,28 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>503</v>
+        <v>384</v>
       </c>
       <c r="F61">
-        <v>1232</v>
+        <v>40</v>
       </c>
       <c r="G61">
-        <v>0.4393638170974155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>0.2</v>
+      </c>
+      <c r="I61">
+        <v>502</v>
+      </c>
+      <c r="J61">
+        <v>1242</v>
+      </c>
+      <c r="K61">
+        <v>0.4402390438247012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1815,16 +2559,28 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F62">
-        <v>1610</v>
+        <v>40</v>
       </c>
       <c r="G62">
-        <v>0.445910290237467</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H62">
+        <v>0.2</v>
+      </c>
+      <c r="I62">
+        <v>378</v>
+      </c>
+      <c r="J62">
+        <v>1620</v>
+      </c>
+      <c r="K62">
+        <v>0.4470899470899471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1838,16 +2594,28 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="F63">
-        <v>-2224</v>
+        <v>40</v>
       </c>
       <c r="G63">
-        <v>0.4051446945337621</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H63">
+        <v>0.2</v>
+      </c>
+      <c r="I63">
+        <v>310</v>
+      </c>
+      <c r="J63">
+        <v>-2214</v>
+      </c>
+      <c r="K63">
+        <v>0.4064516129032258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1861,16 +2629,28 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="F64">
-        <v>-6364</v>
+        <v>40</v>
       </c>
       <c r="G64">
-        <v>0.3959044368600683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H64">
+        <v>0.2</v>
+      </c>
+      <c r="I64">
+        <v>292</v>
+      </c>
+      <c r="J64">
+        <v>-6354</v>
+      </c>
+      <c r="K64">
+        <v>0.3972602739726027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1884,16 +2664,28 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>3743</v>
+        <v>384</v>
       </c>
       <c r="F65">
-        <v>3284</v>
+        <v>40</v>
       </c>
       <c r="G65">
-        <v>0.5108201977023777</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+      <c r="I65">
+        <v>3742</v>
+      </c>
+      <c r="J65">
+        <v>3294</v>
+      </c>
+      <c r="K65">
+        <v>0.5109567076429716</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1907,16 +2699,28 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>2343</v>
+        <v>384</v>
       </c>
       <c r="F66">
-        <v>-4462</v>
+        <v>40</v>
       </c>
       <c r="G66">
-        <v>0.4972257789159197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <v>0.2</v>
+      </c>
+      <c r="I66">
+        <v>2342</v>
+      </c>
+      <c r="J66">
+        <v>-4452</v>
+      </c>
+      <c r="K66">
+        <v>0.4974380871050385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1930,16 +2734,28 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>1479</v>
+        <v>384</v>
       </c>
       <c r="F67">
-        <v>2774</v>
+        <v>40</v>
       </c>
       <c r="G67">
-        <v>0.478025693035835</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H67">
+        <v>0.2</v>
+      </c>
+      <c r="I67">
+        <v>1478</v>
+      </c>
+      <c r="J67">
+        <v>2784</v>
+      </c>
+      <c r="K67">
+        <v>0.4783491204330176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1953,16 +2769,28 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>973</v>
+        <v>384</v>
       </c>
       <c r="F68">
-        <v>7642</v>
+        <v>40</v>
       </c>
       <c r="G68">
-        <v>0.4645426515930113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H68">
+        <v>0.2</v>
+      </c>
+      <c r="I68">
+        <v>972</v>
+      </c>
+      <c r="J68">
+        <v>7652</v>
+      </c>
+      <c r="K68">
+        <v>0.4650205761316872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1976,16 +2804,28 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>711</v>
+        <v>384</v>
       </c>
       <c r="F69">
-        <v>-4258</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>0.4303797468354431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H69">
+        <v>0.2</v>
+      </c>
+      <c r="I69">
+        <v>710</v>
+      </c>
+      <c r="J69">
+        <v>-4248</v>
+      </c>
+      <c r="K69">
+        <v>0.4309859154929577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1999,16 +2839,28 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="F70">
-        <v>3976</v>
+        <v>40</v>
       </c>
       <c r="G70">
-        <v>0.4559686888454011</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+      <c r="I70">
+        <v>510</v>
+      </c>
+      <c r="J70">
+        <v>3986</v>
+      </c>
+      <c r="K70">
+        <v>0.4568627450980392</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2022,16 +2874,28 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F71">
-        <v>-1434</v>
+        <v>40</v>
       </c>
       <c r="G71">
-        <v>0.4185463659147869</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>0.2</v>
+      </c>
+      <c r="I71">
+        <v>398</v>
+      </c>
+      <c r="J71">
+        <v>-1424</v>
+      </c>
+      <c r="K71">
+        <v>0.4195979899497487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2045,16 +2909,28 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>319</v>
+        <v>384</v>
       </c>
       <c r="F72">
-        <v>-2476</v>
+        <v>40</v>
       </c>
       <c r="G72">
-        <v>0.3981191222570533</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>0.2</v>
+      </c>
+      <c r="I72">
+        <v>318</v>
+      </c>
+      <c r="J72">
+        <v>-2466</v>
+      </c>
+      <c r="K72">
+        <v>0.39937106918239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2068,16 +2944,28 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="F73">
-        <v>-5472</v>
+        <v>40</v>
       </c>
       <c r="G73">
-        <v>0.3939393939393939</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H73">
+        <v>0.2</v>
+      </c>
+      <c r="I73">
+        <v>296</v>
+      </c>
+      <c r="J73">
+        <v>-5462</v>
+      </c>
+      <c r="K73">
+        <v>0.3952702702702703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2091,16 +2979,28 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>3749</v>
+        <v>384</v>
       </c>
       <c r="F74">
-        <v>7610</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>0.5121365697519339</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>0.2</v>
+      </c>
+      <c r="I74">
+        <v>3748</v>
+      </c>
+      <c r="J74">
+        <v>7620</v>
+      </c>
+      <c r="K74">
+        <v>0.5122732123799359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2114,16 +3014,28 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>2341</v>
+        <v>384</v>
       </c>
       <c r="F75">
-        <v>-4900</v>
+        <v>40</v>
       </c>
       <c r="G75">
-        <v>0.5002135839384878</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H75">
+        <v>0.2</v>
+      </c>
+      <c r="I75">
+        <v>2340</v>
+      </c>
+      <c r="J75">
+        <v>-4890</v>
+      </c>
+      <c r="K75">
+        <v>0.5004273504273504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2137,16 +3049,28 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>1499</v>
+        <v>384</v>
       </c>
       <c r="F76">
-        <v>2538</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>0.4769846564376251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H76">
+        <v>0.2</v>
+      </c>
+      <c r="I76">
+        <v>1498</v>
+      </c>
+      <c r="J76">
+        <v>2548</v>
+      </c>
+      <c r="K76">
+        <v>0.4773030707610147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2160,16 +3084,28 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>973</v>
+        <v>384</v>
       </c>
       <c r="F77">
-        <v>7618</v>
+        <v>40</v>
       </c>
       <c r="G77">
-        <v>0.4552929085303186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H77">
+        <v>0.2</v>
+      </c>
+      <c r="I77">
+        <v>972</v>
+      </c>
+      <c r="J77">
+        <v>7628</v>
+      </c>
+      <c r="K77">
+        <v>0.455761316872428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2183,16 +3119,28 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>705</v>
+        <v>384</v>
       </c>
       <c r="F78">
-        <v>1220</v>
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>0.4453900709219858</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H78">
+        <v>0.2</v>
+      </c>
+      <c r="I78">
+        <v>704</v>
+      </c>
+      <c r="J78">
+        <v>1230</v>
+      </c>
+      <c r="K78">
+        <v>0.4460227272727273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2206,16 +3154,28 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>527</v>
+        <v>384</v>
       </c>
       <c r="F79">
-        <v>-612</v>
+        <v>40</v>
       </c>
       <c r="G79">
-        <v>0.4307400379506641</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H79">
+        <v>0.2</v>
+      </c>
+      <c r="I79">
+        <v>526</v>
+      </c>
+      <c r="J79">
+        <v>-602</v>
+      </c>
+      <c r="K79">
+        <v>0.4315589353612168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2229,16 +3189,28 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="F80">
-        <v>952</v>
+        <v>40</v>
       </c>
       <c r="G80">
-        <v>0.4314214463840399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H80">
+        <v>0.2</v>
+      </c>
+      <c r="I80">
+        <v>400</v>
+      </c>
+      <c r="J80">
+        <v>962</v>
+      </c>
+      <c r="K80">
+        <v>0.4325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2252,16 +3224,28 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="F81">
-        <v>-2824</v>
+        <v>40</v>
       </c>
       <c r="G81">
-        <v>0.4072948328267477</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H81">
+        <v>0.2</v>
+      </c>
+      <c r="I81">
+        <v>328</v>
+      </c>
+      <c r="J81">
+        <v>-2814</v>
+      </c>
+      <c r="K81">
+        <v>0.4085365853658536</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2275,16 +3259,28 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="F82">
-        <v>-4318</v>
+        <v>40</v>
       </c>
       <c r="G82">
-        <v>0.4107744107744108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H82">
+        <v>0.2</v>
+      </c>
+      <c r="I82">
+        <v>296</v>
+      </c>
+      <c r="J82">
+        <v>-4308</v>
+      </c>
+      <c r="K82">
+        <v>0.4121621621621622</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2298,16 +3294,28 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>3759</v>
+        <v>384</v>
       </c>
       <c r="F83">
-        <v>7054</v>
+        <v>40</v>
       </c>
       <c r="G83">
-        <v>0.5131683958499601</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H83">
+        <v>0.2</v>
+      </c>
+      <c r="I83">
+        <v>3758</v>
+      </c>
+      <c r="J83">
+        <v>7064</v>
+      </c>
+      <c r="K83">
+        <v>0.5133049494411921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2321,16 +3329,28 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>2330</v>
+        <v>384</v>
       </c>
       <c r="F84">
-        <v>-332</v>
+        <v>40</v>
       </c>
       <c r="G84">
-        <v>0.5042918454935622</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H84">
+        <v>0.2</v>
+      </c>
+      <c r="I84">
+        <v>2329</v>
+      </c>
+      <c r="J84">
+        <v>-322</v>
+      </c>
+      <c r="K84">
+        <v>0.5045083726921425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2344,16 +3364,28 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>1495</v>
+        <v>384</v>
       </c>
       <c r="F85">
-        <v>3394</v>
+        <v>40</v>
       </c>
       <c r="G85">
-        <v>0.482943143812709</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>0.2</v>
+      </c>
+      <c r="I85">
+        <v>1494</v>
+      </c>
+      <c r="J85">
+        <v>3404</v>
+      </c>
+      <c r="K85">
+        <v>0.4832663989290495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2367,16 +3399,28 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>981</v>
+        <v>384</v>
       </c>
       <c r="F86">
-        <v>8364</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>0.4648318042813456</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H86">
+        <v>0.2</v>
+      </c>
+      <c r="I86">
+        <v>980</v>
+      </c>
+      <c r="J86">
+        <v>8374</v>
+      </c>
+      <c r="K86">
+        <v>0.4653061224489796</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2390,16 +3434,28 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>709</v>
+        <v>384</v>
       </c>
       <c r="F87">
-        <v>3858</v>
+        <v>40</v>
       </c>
       <c r="G87">
-        <v>0.4456981664315938</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H87">
+        <v>0.2</v>
+      </c>
+      <c r="I87">
+        <v>708</v>
+      </c>
+      <c r="J87">
+        <v>3868</v>
+      </c>
+      <c r="K87">
+        <v>0.4463276836158192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2413,16 +3469,28 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>539</v>
+        <v>384</v>
       </c>
       <c r="F88">
-        <v>-1384</v>
+        <v>40</v>
       </c>
       <c r="G88">
-        <v>0.4267161410018553</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H88">
+        <v>0.2</v>
+      </c>
+      <c r="I88">
+        <v>538</v>
+      </c>
+      <c r="J88">
+        <v>-1374</v>
+      </c>
+      <c r="K88">
+        <v>0.4275092936802974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2436,16 +3504,28 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="F89">
-        <v>1998</v>
+        <v>40</v>
       </c>
       <c r="G89">
-        <v>0.4370370370370371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H89">
+        <v>0.2</v>
+      </c>
+      <c r="I89">
+        <v>404</v>
+      </c>
+      <c r="J89">
+        <v>2008</v>
+      </c>
+      <c r="K89">
+        <v>0.4381188118811881</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2459,16 +3539,28 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="F90">
-        <v>-3184</v>
+        <v>40</v>
       </c>
       <c r="G90">
-        <v>0.4041297935103245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H90">
+        <v>0.2</v>
+      </c>
+      <c r="I90">
+        <v>338</v>
+      </c>
+      <c r="J90">
+        <v>-3174</v>
+      </c>
+      <c r="K90">
+        <v>0.4053254437869823</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2482,16 +3574,28 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="F91">
-        <v>-5476</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0.4065573770491803</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H91">
+        <v>0.2</v>
+      </c>
+      <c r="I91">
+        <v>304</v>
+      </c>
+      <c r="J91">
+        <v>-5466</v>
+      </c>
+      <c r="K91">
+        <v>0.4078947368421053</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2505,16 +3609,28 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>3741</v>
+        <v>384</v>
       </c>
       <c r="F92">
-        <v>7132</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0.516706762897621</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H92">
+        <v>0.2</v>
+      </c>
+      <c r="I92">
+        <v>3740</v>
+      </c>
+      <c r="J92">
+        <v>7142</v>
+      </c>
+      <c r="K92">
+        <v>0.5168449197860963</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2528,16 +3644,28 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>2326</v>
+        <v>384</v>
       </c>
       <c r="F93">
-        <v>-3328</v>
+        <v>40</v>
       </c>
       <c r="G93">
-        <v>0.4914015477214101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H93">
+        <v>0.2</v>
+      </c>
+      <c r="I93">
+        <v>2325</v>
+      </c>
+      <c r="J93">
+        <v>-3318</v>
+      </c>
+      <c r="K93">
+        <v>0.4916129032258065</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2551,16 +3679,28 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>1477</v>
+        <v>384</v>
       </c>
       <c r="F94">
-        <v>3770</v>
+        <v>40</v>
       </c>
       <c r="G94">
-        <v>0.4786729857819905</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H94">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>1476</v>
+      </c>
+      <c r="J94">
+        <v>3780</v>
+      </c>
+      <c r="K94">
+        <v>0.4789972899728998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2574,16 +3714,28 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>995</v>
+        <v>384</v>
       </c>
       <c r="F95">
-        <v>5746</v>
+        <v>40</v>
       </c>
       <c r="G95">
-        <v>0.4512562814070352</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H95">
+        <v>0.2</v>
+      </c>
+      <c r="I95">
+        <v>994</v>
+      </c>
+      <c r="J95">
+        <v>5756</v>
+      </c>
+      <c r="K95">
+        <v>0.4517102615694165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2597,16 +3749,28 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>719</v>
+        <v>384</v>
       </c>
       <c r="F96">
-        <v>2696</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>0.4464534075104312</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H96">
+        <v>0.2</v>
+      </c>
+      <c r="I96">
+        <v>718</v>
+      </c>
+      <c r="J96">
+        <v>2706</v>
+      </c>
+      <c r="K96">
+        <v>0.447075208913649</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2620,16 +3784,28 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>549</v>
+        <v>384</v>
       </c>
       <c r="F97">
-        <v>-1276</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>0.418943533697632</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>548</v>
+      </c>
+      <c r="J97">
+        <v>-1266</v>
+      </c>
+      <c r="K97">
+        <v>0.4197080291970803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2643,16 +3819,28 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="F98">
-        <v>3386</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>0.450363196125908</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H98">
+        <v>0.2</v>
+      </c>
+      <c r="I98">
+        <v>412</v>
+      </c>
+      <c r="J98">
+        <v>3396</v>
+      </c>
+      <c r="K98">
+        <v>0.4514563106796117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2666,16 +3854,28 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="F99">
-        <v>-3636</v>
+        <v>40</v>
       </c>
       <c r="G99">
-        <v>0.4068767908309456</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H99">
+        <v>0.2</v>
+      </c>
+      <c r="I99">
+        <v>348</v>
+      </c>
+      <c r="J99">
+        <v>-3626</v>
+      </c>
+      <c r="K99">
+        <v>0.4080459770114943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2689,16 +3889,28 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="F100">
-        <v>-6698</v>
+        <v>40</v>
       </c>
       <c r="G100">
-        <v>0.3890675241157556</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H100">
+        <v>0.2</v>
+      </c>
+      <c r="I100">
+        <v>310</v>
+      </c>
+      <c r="J100">
+        <v>-6688</v>
+      </c>
+      <c r="K100">
+        <v>0.3903225806451613</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2712,16 +3924,28 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>3747</v>
+        <v>384</v>
       </c>
       <c r="F101">
-        <v>8430</v>
+        <v>40</v>
       </c>
       <c r="G101">
-        <v>0.5145449693087804</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H101">
+        <v>0.2</v>
+      </c>
+      <c r="I101">
+        <v>3746</v>
+      </c>
+      <c r="J101">
+        <v>8440</v>
+      </c>
+      <c r="K101">
+        <v>0.5146823278163374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2735,16 +3959,28 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>2326</v>
+        <v>384</v>
       </c>
       <c r="F102">
-        <v>-796</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>0.4931212381771281</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <v>0.2</v>
+      </c>
+      <c r="I102">
+        <v>2325</v>
+      </c>
+      <c r="J102">
+        <v>-786</v>
+      </c>
+      <c r="K102">
+        <v>0.4933333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2758,16 +3994,28 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>1477</v>
+        <v>384</v>
       </c>
       <c r="F103">
-        <v>1436</v>
+        <v>40</v>
       </c>
       <c r="G103">
-        <v>0.4678402166553826</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>0.2</v>
+      </c>
+      <c r="I103">
+        <v>1476</v>
+      </c>
+      <c r="J103">
+        <v>1446</v>
+      </c>
+      <c r="K103">
+        <v>0.4681571815718157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2781,16 +4029,28 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>1005</v>
+        <v>384</v>
       </c>
       <c r="F104">
-        <v>2222</v>
+        <v>40</v>
       </c>
       <c r="G104">
-        <v>0.4417910447761194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H104">
+        <v>0.2</v>
+      </c>
+      <c r="I104">
+        <v>1004</v>
+      </c>
+      <c r="J104">
+        <v>2232</v>
+      </c>
+      <c r="K104">
+        <v>0.4422310756972112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2804,16 +4064,28 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>727</v>
+        <v>384</v>
       </c>
       <c r="F105">
-        <v>1306</v>
+        <v>40</v>
       </c>
       <c r="G105">
-        <v>0.4497936726272352</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H105">
+        <v>0.2</v>
+      </c>
+      <c r="I105">
+        <v>726</v>
+      </c>
+      <c r="J105">
+        <v>1316</v>
+      </c>
+      <c r="K105">
+        <v>0.4504132231404959</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2827,16 +4099,28 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>557</v>
+        <v>384</v>
       </c>
       <c r="F106">
-        <v>1438</v>
+        <v>40</v>
       </c>
       <c r="G106">
-        <v>0.4236983842010772</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H106">
+        <v>0.2</v>
+      </c>
+      <c r="I106">
+        <v>556</v>
+      </c>
+      <c r="J106">
+        <v>1448</v>
+      </c>
+      <c r="K106">
+        <v>0.4244604316546763</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2850,16 +4134,28 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="F107">
-        <v>2330</v>
+        <v>40</v>
       </c>
       <c r="G107">
-        <v>0.4238875878220141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H107">
+        <v>0.2</v>
+      </c>
+      <c r="I107">
+        <v>426</v>
+      </c>
+      <c r="J107">
+        <v>2340</v>
+      </c>
+      <c r="K107">
+        <v>0.4248826291079812</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2873,16 +4169,28 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="F108">
-        <v>-4286</v>
+        <v>40</v>
       </c>
       <c r="G108">
-        <v>0.4061624649859944</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H108">
+        <v>0.2</v>
+      </c>
+      <c r="I108">
+        <v>356</v>
+      </c>
+      <c r="J108">
+        <v>-4276</v>
+      </c>
+      <c r="K108">
+        <v>0.4073033707865168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2896,16 +4204,28 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="F109">
-        <v>-3084</v>
+        <v>40</v>
       </c>
       <c r="G109">
-        <v>0.3987138263665595</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>0.2</v>
+      </c>
+      <c r="I109">
+        <v>310</v>
+      </c>
+      <c r="J109">
+        <v>-3074</v>
+      </c>
+      <c r="K109">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2919,16 +4239,28 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>3737</v>
+        <v>384</v>
       </c>
       <c r="F110">
-        <v>8638</v>
+        <v>40</v>
       </c>
       <c r="G110">
-        <v>0.5164570511105164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H110">
+        <v>0.2</v>
+      </c>
+      <c r="I110">
+        <v>3736</v>
+      </c>
+      <c r="J110">
+        <v>8648</v>
+      </c>
+      <c r="K110">
+        <v>0.5165952890792291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2942,16 +4274,28 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>2327</v>
+        <v>384</v>
       </c>
       <c r="F111">
-        <v>-2972</v>
+        <v>40</v>
       </c>
       <c r="G111">
-        <v>0.4916201117318436</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H111">
+        <v>0.2</v>
+      </c>
+      <c r="I111">
+        <v>2326</v>
+      </c>
+      <c r="J111">
+        <v>-2962</v>
+      </c>
+      <c r="K111">
+        <v>0.4918314703353396</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2965,16 +4309,28 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>1463</v>
+        <v>384</v>
       </c>
       <c r="F112">
-        <v>510</v>
+        <v>40</v>
       </c>
       <c r="G112">
-        <v>0.4764183185235817</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H112">
+        <v>0.2</v>
+      </c>
+      <c r="I112">
+        <v>1462</v>
+      </c>
+      <c r="J112">
+        <v>520</v>
+      </c>
+      <c r="K112">
+        <v>0.4767441860465116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2988,16 +4344,28 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>997</v>
+        <v>384</v>
       </c>
       <c r="F113">
-        <v>2086</v>
+        <v>40</v>
       </c>
       <c r="G113">
-        <v>0.4433299899699097</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H113">
+        <v>0.2</v>
+      </c>
+      <c r="I113">
+        <v>996</v>
+      </c>
+      <c r="J113">
+        <v>2096</v>
+      </c>
+      <c r="K113">
+        <v>0.4437751004016064</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3011,16 +4379,28 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>741</v>
+        <v>384</v>
       </c>
       <c r="F114">
-        <v>1242</v>
+        <v>40</v>
       </c>
       <c r="G114">
-        <v>0.4453441295546559</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H114">
+        <v>0.2</v>
+      </c>
+      <c r="I114">
+        <v>740</v>
+      </c>
+      <c r="J114">
+        <v>1252</v>
+      </c>
+      <c r="K114">
+        <v>0.4459459459459459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3034,16 +4414,28 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>555</v>
+        <v>384</v>
       </c>
       <c r="F115">
-        <v>4640</v>
+        <v>40</v>
       </c>
       <c r="G115">
-        <v>0.4288288288288288</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H115">
+        <v>0.2</v>
+      </c>
+      <c r="I115">
+        <v>554</v>
+      </c>
+      <c r="J115">
+        <v>4650</v>
+      </c>
+      <c r="K115">
+        <v>0.4296028880866426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3057,16 +4449,28 @@
         <v>15</v>
       </c>
       <c r="E116">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="F116">
-        <v>528</v>
+        <v>40</v>
       </c>
       <c r="G116">
-        <v>0.4214123006833713</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>0.2</v>
+      </c>
+      <c r="I116">
+        <v>438</v>
+      </c>
+      <c r="J116">
+        <v>538</v>
+      </c>
+      <c r="K116">
+        <v>0.4223744292237443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3080,16 +4484,28 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F117">
-        <v>-2582</v>
+        <v>40</v>
       </c>
       <c r="G117">
-        <v>0.403899721448468</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H117">
+        <v>0.2</v>
+      </c>
+      <c r="I117">
+        <v>358</v>
+      </c>
+      <c r="J117">
+        <v>-2572</v>
+      </c>
+      <c r="K117">
+        <v>0.4050279329608938</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3103,16 +4519,28 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="F118">
-        <v>-1958</v>
+        <v>40</v>
       </c>
       <c r="G118">
-        <v>0.3968253968253968</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H118">
+        <v>0.2</v>
+      </c>
+      <c r="I118">
+        <v>314</v>
+      </c>
+      <c r="J118">
+        <v>-1948</v>
+      </c>
+      <c r="K118">
+        <v>0.3980891719745223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3126,16 +4554,28 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>3753</v>
+        <v>384</v>
       </c>
       <c r="F119">
-        <v>9534</v>
+        <v>40</v>
       </c>
       <c r="G119">
-        <v>0.5185185185185185</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H119">
+        <v>0.2</v>
+      </c>
+      <c r="I119">
+        <v>3752</v>
+      </c>
+      <c r="J119">
+        <v>9544</v>
+      </c>
+      <c r="K119">
+        <v>0.5186567164179104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3149,16 +4589,28 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>2314</v>
+        <v>384</v>
       </c>
       <c r="F120">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G120">
-        <v>0.4922212618841832</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H120">
+        <v>0.2</v>
+      </c>
+      <c r="I120">
+        <v>2313</v>
+      </c>
+      <c r="J120">
+        <v>72</v>
+      </c>
+      <c r="K120">
+        <v>0.4924340683095547</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3172,16 +4624,28 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>1471</v>
+        <v>384</v>
       </c>
       <c r="F121">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="G121">
-        <v>0.469068660774983</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H121">
+        <v>0.2</v>
+      </c>
+      <c r="I121">
+        <v>1470</v>
+      </c>
+      <c r="J121">
+        <v>296</v>
+      </c>
+      <c r="K121">
+        <v>0.4693877551020408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3195,16 +4659,28 @@
         <v>15</v>
       </c>
       <c r="E122">
-        <v>1007</v>
+        <v>384</v>
       </c>
       <c r="F122">
-        <v>2094</v>
+        <v>40</v>
       </c>
       <c r="G122">
-        <v>0.4419066534260179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H122">
+        <v>0.2</v>
+      </c>
+      <c r="I122">
+        <v>1006</v>
+      </c>
+      <c r="J122">
+        <v>2104</v>
+      </c>
+      <c r="K122">
+        <v>0.4423459244532803</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3218,16 +4694,28 @@
         <v>15</v>
       </c>
       <c r="E123">
-        <v>743</v>
+        <v>384</v>
       </c>
       <c r="F123">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="G123">
-        <v>0.4374158815612382</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H123">
+        <v>0.2</v>
+      </c>
+      <c r="I123">
+        <v>742</v>
+      </c>
+      <c r="J123">
+        <v>228</v>
+      </c>
+      <c r="K123">
+        <v>0.4380053908355795</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3241,16 +4729,28 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>561</v>
+        <v>384</v>
       </c>
       <c r="F124">
-        <v>6668</v>
+        <v>40</v>
       </c>
       <c r="G124">
-        <v>0.4402852049910874</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H124">
+        <v>0.2</v>
+      </c>
+      <c r="I124">
+        <v>560</v>
+      </c>
+      <c r="J124">
+        <v>6678</v>
+      </c>
+      <c r="K124">
+        <v>0.4410714285714286</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3264,16 +4764,28 @@
         <v>15</v>
       </c>
       <c r="E125">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="F125">
-        <v>1386</v>
+        <v>40</v>
       </c>
       <c r="G125">
-        <v>0.4266365688487584</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H125">
+        <v>0.2</v>
+      </c>
+      <c r="I125">
+        <v>442</v>
+      </c>
+      <c r="J125">
+        <v>1396</v>
+      </c>
+      <c r="K125">
+        <v>0.4276018099547511</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3287,16 +4799,28 @@
         <v>15</v>
       </c>
       <c r="E126">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="F126">
-        <v>-1130</v>
+        <v>40</v>
       </c>
       <c r="G126">
-        <v>0.4261838440111421</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H126">
+        <v>0.2</v>
+      </c>
+      <c r="I126">
+        <v>358</v>
+      </c>
+      <c r="J126">
+        <v>-1120</v>
+      </c>
+      <c r="K126">
+        <v>0.4273743016759777</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3310,16 +4834,28 @@
         <v>15</v>
       </c>
       <c r="E127">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="F127">
-        <v>-1732</v>
+        <v>40</v>
       </c>
       <c r="G127">
-        <v>0.3894080996884735</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H127">
+        <v>0.2</v>
+      </c>
+      <c r="I127">
+        <v>320</v>
+      </c>
+      <c r="J127">
+        <v>-1722</v>
+      </c>
+      <c r="K127">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3333,16 +4869,28 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>3743</v>
+        <v>384</v>
       </c>
       <c r="F128">
-        <v>8700</v>
+        <v>40</v>
       </c>
       <c r="G128">
-        <v>0.5215068127170719</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H128">
+        <v>0.2</v>
+      </c>
+      <c r="I128">
+        <v>3742</v>
+      </c>
+      <c r="J128">
+        <v>8710</v>
+      </c>
+      <c r="K128">
+        <v>0.5216461785141635</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3356,16 +4904,28 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>2318</v>
+        <v>384</v>
       </c>
       <c r="F129">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="G129">
-        <v>0.4879206212251941</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H129">
+        <v>0.2</v>
+      </c>
+      <c r="I129">
+        <v>2317</v>
+      </c>
+      <c r="J129">
+        <v>358</v>
+      </c>
+      <c r="K129">
+        <v>0.4881312041432888</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3379,16 +4939,28 @@
         <v>15</v>
       </c>
       <c r="E130">
-        <v>1487</v>
+        <v>384</v>
       </c>
       <c r="F130">
-        <v>-1644</v>
+        <v>40</v>
       </c>
       <c r="G130">
-        <v>0.4714189643577673</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H130">
+        <v>0.2</v>
+      </c>
+      <c r="I130">
+        <v>1486</v>
+      </c>
+      <c r="J130">
+        <v>-1634</v>
+      </c>
+      <c r="K130">
+        <v>0.4717362045760431</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3402,16 +4974,28 @@
         <v>15</v>
       </c>
       <c r="E131">
-        <v>1003</v>
+        <v>384</v>
       </c>
       <c r="F131">
-        <v>2104</v>
+        <v>40</v>
       </c>
       <c r="G131">
-        <v>0.4436689930209372</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H131">
+        <v>0.2</v>
+      </c>
+      <c r="I131">
+        <v>1002</v>
+      </c>
+      <c r="J131">
+        <v>2114</v>
+      </c>
+      <c r="K131">
+        <v>0.4441117764471058</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3425,16 +5009,28 @@
         <v>15</v>
       </c>
       <c r="E132">
-        <v>747</v>
+        <v>384</v>
       </c>
       <c r="F132">
-        <v>1934</v>
+        <v>40</v>
       </c>
       <c r="G132">
-        <v>0.431057563587684</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H132">
+        <v>0.2</v>
+      </c>
+      <c r="I132">
+        <v>746</v>
+      </c>
+      <c r="J132">
+        <v>1944</v>
+      </c>
+      <c r="K132">
+        <v>0.4316353887399464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3448,16 +5044,28 @@
         <v>15</v>
       </c>
       <c r="E133">
-        <v>577</v>
+        <v>384</v>
       </c>
       <c r="F133">
-        <v>4506</v>
+        <v>40</v>
       </c>
       <c r="G133">
-        <v>0.4298093587521664</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>0.2</v>
+      </c>
+      <c r="I133">
+        <v>576</v>
+      </c>
+      <c r="J133">
+        <v>4516</v>
+      </c>
+      <c r="K133">
+        <v>0.4305555555555556</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3471,16 +5079,28 @@
         <v>15</v>
       </c>
       <c r="E134">
-        <v>447</v>
+        <v>384</v>
       </c>
       <c r="F134">
-        <v>1778</v>
+        <v>40</v>
       </c>
       <c r="G134">
-        <v>0.4228187919463087</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H134">
+        <v>0.2</v>
+      </c>
+      <c r="I134">
+        <v>446</v>
+      </c>
+      <c r="J134">
+        <v>1788</v>
+      </c>
+      <c r="K134">
+        <v>0.4237668161434978</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3494,16 +5114,28 @@
         <v>15</v>
       </c>
       <c r="E135">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="F135">
-        <v>-2130</v>
+        <v>40</v>
       </c>
       <c r="G135">
-        <v>0.4114441416893733</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H135">
+        <v>0.2</v>
+      </c>
+      <c r="I135">
+        <v>366</v>
+      </c>
+      <c r="J135">
+        <v>-2120</v>
+      </c>
+      <c r="K135">
+        <v>0.412568306010929</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3517,16 +5149,28 @@
         <v>15</v>
       </c>
       <c r="E136">
-        <v>323</v>
+        <v>384</v>
       </c>
       <c r="F136">
-        <v>-1130</v>
+        <v>40</v>
       </c>
       <c r="G136">
-        <v>0.3839009287925697</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H136">
+        <v>0.2</v>
+      </c>
+      <c r="I136">
+        <v>322</v>
+      </c>
+      <c r="J136">
+        <v>-1120</v>
+      </c>
+      <c r="K136">
+        <v>0.3850931677018634</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3540,16 +5184,28 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>3749</v>
+        <v>384</v>
       </c>
       <c r="F137">
-        <v>8842</v>
+        <v>40</v>
       </c>
       <c r="G137">
-        <v>0.5220058682315284</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H137">
+        <v>0.2</v>
+      </c>
+      <c r="I137">
+        <v>3748</v>
+      </c>
+      <c r="J137">
+        <v>8852</v>
+      </c>
+      <c r="K137">
+        <v>0.522145144076841</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3563,16 +5219,28 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>2337</v>
+        <v>384</v>
       </c>
       <c r="F138">
-        <v>-2558</v>
+        <v>40</v>
       </c>
       <c r="G138">
-        <v>0.4856653829696192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>0.2</v>
+      </c>
+      <c r="I138">
+        <v>2336</v>
+      </c>
+      <c r="J138">
+        <v>-2548</v>
+      </c>
+      <c r="K138">
+        <v>0.4858732876712329</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3586,16 +5254,28 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>1479</v>
+        <v>384</v>
       </c>
       <c r="F139">
-        <v>1790</v>
+        <v>40</v>
       </c>
       <c r="G139">
-        <v>0.4739688979039892</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H139">
+        <v>0.2</v>
+      </c>
+      <c r="I139">
+        <v>1478</v>
+      </c>
+      <c r="J139">
+        <v>1800</v>
+      </c>
+      <c r="K139">
+        <v>0.4742895805142084</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3609,16 +5289,28 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>1009</v>
+        <v>384</v>
       </c>
       <c r="F140">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="G140">
-        <v>0.4360753221010902</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H140">
+        <v>0.2</v>
+      </c>
+      <c r="I140">
+        <v>1008</v>
+      </c>
+      <c r="J140">
+        <v>420</v>
+      </c>
+      <c r="K140">
+        <v>0.4365079365079365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3632,16 +5324,28 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>749</v>
+        <v>384</v>
       </c>
       <c r="F141">
-        <v>1300</v>
+        <v>40</v>
       </c>
       <c r="G141">
-        <v>0.42456608811749</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H141">
+        <v>0.2</v>
+      </c>
+      <c r="I141">
+        <v>748</v>
+      </c>
+      <c r="J141">
+        <v>1310</v>
+      </c>
+      <c r="K141">
+        <v>0.4251336898395722</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3655,16 +5359,28 @@
         <v>15</v>
       </c>
       <c r="E142">
-        <v>577</v>
+        <v>384</v>
       </c>
       <c r="F142">
-        <v>4004</v>
+        <v>40</v>
       </c>
       <c r="G142">
-        <v>0.4263431542461005</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H142">
+        <v>0.2</v>
+      </c>
+      <c r="I142">
+        <v>576</v>
+      </c>
+      <c r="J142">
+        <v>4014</v>
+      </c>
+      <c r="K142">
+        <v>0.4270833333333333</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3678,16 +5394,28 @@
         <v>15</v>
       </c>
       <c r="E143">
-        <v>457</v>
+        <v>384</v>
       </c>
       <c r="F143">
-        <v>1652</v>
+        <v>40</v>
       </c>
       <c r="G143">
-        <v>0.4201312910284464</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H143">
+        <v>0.2</v>
+      </c>
+      <c r="I143">
+        <v>456</v>
+      </c>
+      <c r="J143">
+        <v>1662</v>
+      </c>
+      <c r="K143">
+        <v>0.4210526315789473</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3701,16 +5429,28 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F144">
-        <v>-632</v>
+        <v>40</v>
       </c>
       <c r="G144">
-        <v>0.4070080862533693</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H144">
+        <v>0.2</v>
+      </c>
+      <c r="I144">
+        <v>370</v>
+      </c>
+      <c r="J144">
+        <v>-622</v>
+      </c>
+      <c r="K144">
+        <v>0.4081081081081081</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3724,16 +5464,28 @@
         <v>15</v>
       </c>
       <c r="E145">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="F145">
-        <v>1708</v>
+        <v>40</v>
       </c>
       <c r="G145">
-        <v>0.4018691588785047</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H145">
+        <v>0.2</v>
+      </c>
+      <c r="I145">
+        <v>320</v>
+      </c>
+      <c r="J145">
+        <v>1718</v>
+      </c>
+      <c r="K145">
+        <v>0.403125</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3747,16 +5499,28 @@
         <v>15</v>
       </c>
       <c r="E146">
-        <v>3741</v>
+        <v>384</v>
       </c>
       <c r="F146">
-        <v>10132</v>
+        <v>40</v>
       </c>
       <c r="G146">
-        <v>0.5231221598503074</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>0.2</v>
+      </c>
+      <c r="I146">
+        <v>3740</v>
+      </c>
+      <c r="J146">
+        <v>10142</v>
+      </c>
+      <c r="K146">
+        <v>0.5232620320855615</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3770,16 +5534,28 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>2335</v>
+        <v>384</v>
       </c>
       <c r="F147">
-        <v>-4114</v>
+        <v>40</v>
       </c>
       <c r="G147">
-        <v>0.4813704496788009</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H147">
+        <v>0.2</v>
+      </c>
+      <c r="I147">
+        <v>2334</v>
+      </c>
+      <c r="J147">
+        <v>-4104</v>
+      </c>
+      <c r="K147">
+        <v>0.4815766923736076</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3793,16 +5569,28 @@
         <v>15</v>
       </c>
       <c r="E148">
-        <v>1503</v>
+        <v>384</v>
       </c>
       <c r="F148">
-        <v>-928</v>
+        <v>40</v>
       </c>
       <c r="G148">
-        <v>0.4624085163007319</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H148">
+        <v>0.2</v>
+      </c>
+      <c r="I148">
+        <v>1502</v>
+      </c>
+      <c r="J148">
+        <v>-918</v>
+      </c>
+      <c r="K148">
+        <v>0.4627163781624501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3816,16 +5604,28 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>1001</v>
+        <v>384</v>
       </c>
       <c r="F149">
-        <v>1732</v>
+        <v>40</v>
       </c>
       <c r="G149">
-        <v>0.4395604395604396</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>0.2</v>
+      </c>
+      <c r="I149">
+        <v>1000</v>
+      </c>
+      <c r="J149">
+        <v>1742</v>
+      </c>
+      <c r="K149">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3839,16 +5639,28 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>755</v>
+        <v>384</v>
       </c>
       <c r="F150">
-        <v>-1316</v>
+        <v>40</v>
       </c>
       <c r="G150">
-        <v>0.4211920529801325</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H150">
+        <v>0.2</v>
+      </c>
+      <c r="I150">
+        <v>754</v>
+      </c>
+      <c r="J150">
+        <v>-1306</v>
+      </c>
+      <c r="K150">
+        <v>0.4217506631299735</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3862,16 +5674,28 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>571</v>
+        <v>384</v>
       </c>
       <c r="F151">
-        <v>5878</v>
+        <v>40</v>
       </c>
       <c r="G151">
-        <v>0.4308231173380035</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H151">
+        <v>0.2</v>
+      </c>
+      <c r="I151">
+        <v>570</v>
+      </c>
+      <c r="J151">
+        <v>5888</v>
+      </c>
+      <c r="K151">
+        <v>0.4315789473684211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3885,16 +5709,28 @@
         <v>15</v>
       </c>
       <c r="E152">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="F152">
-        <v>2122</v>
+        <v>40</v>
       </c>
       <c r="G152">
-        <v>0.4263736263736264</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H152">
+        <v>0.2</v>
+      </c>
+      <c r="I152">
+        <v>454</v>
+      </c>
+      <c r="J152">
+        <v>2132</v>
+      </c>
+      <c r="K152">
+        <v>0.4273127753303965</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3908,16 +5744,28 @@
         <v>15</v>
       </c>
       <c r="E153">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F153">
-        <v>-1358</v>
+        <v>40</v>
       </c>
       <c r="G153">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>40</v>
+      </c>
+      <c r="H153">
+        <v>0.2</v>
+      </c>
+      <c r="I153">
+        <v>374</v>
+      </c>
+      <c r="J153">
+        <v>-1348</v>
+      </c>
+      <c r="K153">
+        <v>0.4010695187165775</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3931,13 +5779,25 @@
         <v>15</v>
       </c>
       <c r="E154">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="F154">
-        <v>-1254</v>
+        <v>40</v>
       </c>
       <c r="G154">
-        <v>0.3799392097264438</v>
+        <v>40</v>
+      </c>
+      <c r="H154">
+        <v>0.2</v>
+      </c>
+      <c r="I154">
+        <v>328</v>
+      </c>
+      <c r="J154">
+        <v>-1244</v>
+      </c>
+      <c r="K154">
+        <v>0.3810975609756098</v>
       </c>
     </row>
   </sheetData>
